--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_8_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>530360.0913175761</v>
+        <v>527628.5118557507</v>
       </c>
     </row>
     <row r="7">
@@ -662,13 +662,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8.9746405501322</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>50.58810925537669</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>87.91997647155773</v>
       </c>
     </row>
     <row r="3">
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>141.3236091729814</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>75.22735066178157</v>
+        <v>372.0445717845312</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,19 +950,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>8.15777598881281</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>225.9530563078829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>282.5708402618312</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>61.43523306695694</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>35.84085665844382</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,16 +1534,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2811815126418742</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1658,13 +1658,13 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182135</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833703</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>121.8674042714183</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2005,13 +2005,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892427999</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>1.696776052995119e-12</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>41.02686156550273</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>131.4244133395511</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>225.1222404669086</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>134.3542165280282</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2950,7 +2950,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,10 +3244,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>107.3363007608863</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>163.3542162903876</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>3.475606507923894</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4138,7 +4138,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1695.806495672433</v>
+        <v>1579.049931616194</v>
       </c>
       <c r="C2" t="n">
-        <v>1326.843978732021</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="D2" t="n">
-        <v>968.5782801252706</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>2372.386634262822</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>2041.323746919251</v>
       </c>
       <c r="W2" t="n">
-        <v>1695.806495672433</v>
+        <v>2041.323746919251</v>
       </c>
       <c r="X2" t="n">
-        <v>1695.806495672433</v>
+        <v>1667.857988658172</v>
       </c>
       <c r="Y2" t="n">
-        <v>1695.806495672433</v>
+        <v>1579.049931616194</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,16 +4413,16 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>365.6939024587809</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>222.942782082032</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U4" t="n">
-        <v>222.942782082032</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1284.970060705655</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="C5" t="n">
-        <v>1284.970060705655</v>
+        <v>1507.939751500713</v>
       </c>
       <c r="D5" t="n">
-        <v>926.7043620989048</v>
+        <v>1149.674052893962</v>
       </c>
       <c r="E5" t="n">
-        <v>540.9161095006605</v>
+        <v>763.8858002957179</v>
       </c>
       <c r="F5" t="n">
-        <v>129.9302047110529</v>
+        <v>756.9402995465144</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X5" t="n">
-        <v>1675.109392681467</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="Y5" t="n">
-        <v>1284.970060705655</v>
+        <v>1894.539591564834</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>719.8888064399566</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>571.7421478741406</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>571.7421478741406</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="T7" t="n">
-        <v>571.7421478741406</v>
+        <v>484.4236418782191</v>
       </c>
       <c r="U7" t="n">
-        <v>571.7421478741406</v>
+        <v>195.250031532787</v>
       </c>
       <c r="V7" t="n">
-        <v>571.7421478741406</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>571.7421478741406</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>571.7421478741406</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>350.9495687306105</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1001.709638973434</v>
+        <v>1507.455306711702</v>
       </c>
       <c r="C8" t="n">
-        <v>1001.709638973434</v>
+        <v>1507.455306711702</v>
       </c>
       <c r="D8" t="n">
-        <v>1001.709638973434</v>
+        <v>1149.189608104952</v>
       </c>
       <c r="E8" t="n">
-        <v>1001.709638973434</v>
+        <v>763.4013555067074</v>
       </c>
       <c r="F8" t="n">
-        <v>590.7237341838262</v>
+        <v>352.4154507170999</v>
       </c>
       <c r="G8" t="n">
-        <v>173.6359524202537</v>
+        <v>339.3680729939314</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202537</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,22 +4805,22 @@
         <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>325.1460354086931</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>877.9592936548923</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>1509.677104638204</v>
       </c>
       <c r="N8" t="n">
-        <v>1579.896877817736</v>
+        <v>2136.984772698051</v>
       </c>
       <c r="O8" t="n">
-        <v>2127.058082584813</v>
+        <v>2307.15379801501</v>
       </c>
       <c r="P8" t="n">
-        <v>2556.373128924107</v>
+        <v>2662.164970996627</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.93405351505</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2287.242350260201</v>
+        <v>2228.657526031085</v>
       </c>
       <c r="V8" t="n">
-        <v>1956.179462916631</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="W8" t="n">
-        <v>1603.410807646517</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="X8" t="n">
-        <v>1229.945049385437</v>
+        <v>1897.594638687514</v>
       </c>
       <c r="Y8" t="n">
-        <v>1229.945049385437</v>
+        <v>1507.455306711702</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>383.3713861261743</v>
+        <v>478.5308710654409</v>
       </c>
       <c r="L9" t="n">
-        <v>887.7329259922928</v>
+        <v>982.8924109315594</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1623.437760398664</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1822.094502051329</v>
       </c>
       <c r="O9" t="n">
         <v>1981.606814720089</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>281.7864541388444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>281.7864541388444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>281.7864541388444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>133.8733605564512</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>133.8733605564512</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>1053.877663279709</v>
       </c>
       <c r="R10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="T10" t="n">
-        <v>1053.877663279709</v>
+        <v>923.3997019991118</v>
       </c>
       <c r="U10" t="n">
-        <v>1053.877663279709</v>
+        <v>634.2475255767915</v>
       </c>
       <c r="V10" t="n">
-        <v>799.1931750738223</v>
+        <v>379.5630373709047</v>
       </c>
       <c r="W10" t="n">
-        <v>509.7760050368617</v>
+        <v>90.14586733394407</v>
       </c>
       <c r="X10" t="n">
-        <v>281.7864541388444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>281.7864541388444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5021,10 +5021,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2356.04164637206</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.679061850319</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2263.824227505223</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.222762528164</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,40 +5270,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>929.7309773356194</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2323.864695427313</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2104.263230450254</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1560.161572207406</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,22 +5507,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5531,31 +5531,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330936</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,7 +5732,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
@@ -5741,34 +5741,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5835,22 +5835,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>783.5579673960132</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>614.6217844681063</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>464.5051450557705</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2247.16544716645</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1958.090220510648</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1703.405732304761</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1413.9885622678</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1185.999011369783</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>965.2064322262529</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5984,22 +5984,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703784</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969303</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>634.9279362553159</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6184,13 +6184,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6212,19 +6212,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,13 +6239,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.2902967703784</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711973</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,19 +6449,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>261.8464821474262</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
         <v>1577.52840832642</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1647.011051783227</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,19 +6923,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>119.290296770379</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O36" t="n">
         <v>1896.176478190825</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>576.8388927589092</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>407.9027098310023</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>979.2799367326791</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>758.4873575891489</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7406,25 +7406,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>697.5276345711973</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2443.452369935893</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2260.597535590798</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2040.996070613739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2040.996070613739</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1786.311582407852</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7637,16 +7637,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,10 +7655,10 @@
         <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,10 +8304,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>246.7442906384754</v>
       </c>
       <c r="Q8" t="n">
-        <v>106.860446537899</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,22 +8529,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>240.7280987119431</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9634363311153</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8693,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10121,7 +10121,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -22553,7 +22553,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>372.9557295221296</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>177.456525485255</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>298.3179621844959</v>
       </c>
     </row>
     <row r="3">
@@ -22705,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>21.87414536972216</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,13 +22765,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23422,16 +23422,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.09406519747981</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>40.32043864788686</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>59.15888173022628</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>65.54986409393237</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.9994244361419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>85.98103698773721</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>65.54986409393022</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>61.40075786968239</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>32.89260457059962</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>145.6085800303783</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,10 +25132,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>144.8013425629417</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>62.35543909864958</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>62.89964020219777</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,7 +26026,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.09686312</v>
+        <v>354580.0968631198</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855345</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855344</v>
+        <v>389994.8406855343</v>
       </c>
       <c r="E2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="F2" t="n">
         <v>383394.634852753</v>
@@ -26329,31 +26329,31 @@
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="I2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527531</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="K2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="L2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="M2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="N2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="P2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481117</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808063</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925928</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080583</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167367.5317503682</v>
+        <v>167367.5317503681</v>
       </c>
       <c r="C4" t="n">
         <v>209922.4154630333</v>
@@ -26424,40 +26424,40 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682753</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="J4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="K4" t="n">
+        <v>5677.536566682749</v>
+      </c>
+      <c r="L4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="G4" t="n">
+      <c r="M4" t="n">
+        <v>5677.536566682747</v>
+      </c>
+      <c r="N4" t="n">
+        <v>5677.536566682754</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5677.536566682745</v>
+      </c>
+      <c r="P4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="N4" t="n">
-        <v>5677.536566682745</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5677.536566682745</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-485614.3921652021</v>
+        <v>-485800.7855537412</v>
       </c>
       <c r="C6" t="n">
-        <v>97213.34715909165</v>
+        <v>97213.3471590917</v>
       </c>
       <c r="D6" t="n">
-        <v>-58590.45893470343</v>
+        <v>-58590.45893470341</v>
       </c>
       <c r="E6" t="n">
-        <v>-494458.1229186431</v>
+        <v>-494492.8608440791</v>
       </c>
       <c r="F6" t="n">
-        <v>276594.5684621632</v>
+        <v>276559.8305367274</v>
       </c>
       <c r="G6" t="n">
-        <v>276594.568462163</v>
+        <v>276559.8305367274</v>
       </c>
       <c r="H6" t="n">
-        <v>276594.5684621632</v>
+        <v>276559.8305367273</v>
       </c>
       <c r="I6" t="n">
-        <v>276594.568462163</v>
+        <v>276559.8305367273</v>
       </c>
       <c r="J6" t="n">
-        <v>100171.3492695702</v>
+        <v>100136.6113441345</v>
       </c>
       <c r="K6" t="n">
-        <v>276594.5684621633</v>
+        <v>276559.8305367273</v>
       </c>
       <c r="L6" t="n">
-        <v>276594.568462163</v>
+        <v>276559.8305367274</v>
       </c>
       <c r="M6" t="n">
-        <v>152386.0577541048</v>
+        <v>152351.3198286688</v>
       </c>
       <c r="N6" t="n">
-        <v>276594.5684621632</v>
+        <v>276559.8305367274</v>
       </c>
       <c r="O6" t="n">
-        <v>276594.5684621629</v>
+        <v>276559.8305367273</v>
       </c>
       <c r="P6" t="n">
-        <v>276594.5684621633</v>
+        <v>276559.8305367273</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209785</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26972,14 +26972,14 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.4210153450925</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,13 +27382,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>200.6360582529126</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>192.274575193214</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27549,10 +27549,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27582,28 +27582,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>83.71149628510287</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27625,13 +27625,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>338.5568193590134</v>
+        <v>41.73959823626376</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27816,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>20.9649739661015</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>112.2436641085297</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156.7807853555977</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>32.47004381338434</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>105.4855434876135</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>205.3658819001186</v>
@@ -28065,7 +28065,7 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>189.8687987305933</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,22 +31458,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31844,7 +31844,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,16 +31853,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>295.9743940159484</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,10 +32075,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>324.9782573297445</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32096,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>398.1179220955533</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>360.9226811202611</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,22 +32783,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>753.6188077738261</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437244</v>
@@ -32807,10 +32807,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33257,13 +33257,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>353.6230700590495</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>164.2853229338207</v>
+        <v>570.6116741576916</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33974,10 +33974,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,13 +34199,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34217,31 +34217,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>362.5355639238086</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,7 +34781,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34793,7 +34793,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35173,25 +35173,25 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>358.5971444258759</v>
       </c>
       <c r="Q8" t="n">
-        <v>142.1979415092072</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>309.018825644627</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>368.6268117378473</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
         <v>428.2502711927643</v>
@@ -35413,7 +35413,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M11" t="n">
         <v>735.3001107902948</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,7 +35492,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,16 +35501,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>161.9999866016181</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>187.1368183553855</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35744,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>259.5635423156791</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394599</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>622.2770956904928</v>
       </c>
       <c r="O24" t="n">
         <v>557.48457599928</v>
@@ -36455,10 +36455,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36841,7 +36841,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O29" t="n">
         <v>696.488651224316</v>
@@ -36905,13 +36905,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,28 +37142,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>211.4890361370311</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37324,7 +37324,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>25.73094315394657</v>
+        <v>432.0572943778175</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37622,10 +37622,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
